--- a/2024-02-02 23:08:19.552241.xlsx
+++ b/2024-02-02 23:08:19.552241.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">judul</t>
   </si>
@@ -295,6 +295,276 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.detik.com/jatim/sepakbola/d-7173687/menakar-peluang-tiga-klub-jatim-lolos-ke-babak-semifinal-liga-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasar Murah di Banyuwangi Diserbu Warga, Ratusan Sembako Ludes Terjual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 16:33 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warga Banyuwangi menyerbu pasar murah yang digelar Dinas Perindustrian dan Perdagangan Pemprov Jatim. Pasar murah ini serangkaian kunjungan Gubernur Jawa Timur Kofifah Indar Parawansa di halaman SMAN 2 Taruna Bhayangkara, Kecamatan Genteng, Minggu (11/2/2024). Ratusan warga yang memadati area pasar murah rela antre demi mendapatkan sembako murah berupa beras, telur, gula dan minyak goreng. Salah satunya Desi (28), yang mengaku terbantu dengan keberadaan pasar murah tersebut. "Alhamdulilah bisa berhemat puluhan ribu, karena harga bahan pokok seperti beras di pasar sekarang mahal," ungkap warga Genteng Kulon ini. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Desi menyebut, harga beras di pasaran kini berkisar Rp 70 ribu lebih per 5 kilogram. Sementara di pasar murah ini dijual dengan harga Rp 51 ribu dengan berat yang sama. Harga gula pasir di pasar murah ini dijual Rp 14 ribu, sementara di pasaran Rp 16 ribu-Rp 16.500 per kilogram. Ada juga telur yang cuma Rp 23 ribu, jauh lebih murah dibanding harga pasar antara Rp 26-27 ribu per kilogram. "Meski setiap orang hanya dibatasi dua karung beras seberat 5 kilogram, tapi ini sangat membantu kami. Harapan kami bisa sering-sering mengadakan acara pasar murah seperti ini," cetusnya. Warga lain, Kariadi (50) mengaku sengaja datang ke pasar murah tersebut untuk membeli beras. Tak sendiri, ia datang bersama salah satu anggota keluarganya. "Satu orang cuma boleh beli dua kemasan beras, jadi saya sama anak beli biar bisa untuk persediaan di rumah," kata Kariadi. Bupati Banyuwangi Ipuk Diet mengatakan, kehadiran pasar murah dapat membantu mengendalikan harga pasar sehingga berdampak pada pengendalian Inflasi Daerah. Hal tersebut selaras dengan tugas Tim Pengendali Inflasi Daerah (TPID) untuk melakukan langkah preventif dengan memastikan ketersediaan bahan pokok yang mudah dijangkau masyarakat. "Ketika ada harga kebutuhan pokok tertentu yang melesat cukup tinggi, maka toko penyeimbang akan menjual barang yang naik itu dengan harga yang sudah disubsidi. Harapannya agar harga bisa kembali stabil dan terkendali," kata Ipuk. Ketersediaan sembako murah tersebut, menurut Ipuk, menjadi salah satu yang berkontribusi pada capaian pengendalian inflasi di Banyuwangi. "Kami bersyukur berkat kekompakan stakeholder TPID dan dukungan semua mitra, pengendalian inflasi Banyuwangi selama 2023 bisa dijaga. Inflasi Banyuwangi year on year (YOY) 2023 menjadi yang terendah di Jatim yakni 2,15%. Lebih rendah dari YoY Jawa Timur (2,92%) maupun Nasional (2,61%)," pungkas Ipuk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/bisnis/d-7187734/pasar-murah-di-banyuwangi-diserbu-warga-ratusan-sembako-ludes-terjual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said Abdullah Tekankan Kader PDIP Jatim Tak Boleh Lengah di Masa Tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 15:38 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa tenang akan berlangsung selama tiga hari hingga 13 Februari 2024. Di masa tersebut, Ketua DPD PDI Perjuangan Jawa Timur Said Abdullah menekankan agar anggota dan kader tak boleh lengah dan meningkatkan siaga jelang pencoblosan pada 14 Februari 2024. Untuk menjaga soliditas, Said meningkatkan koordinasi dengan pimpinan-pimpinan DPC di seluruh Jatim. Said ingin memastikan pada kadernya untuk tidak lengah dan kecolongan. "Kita tetap siaga penuh selama masa tenang kampanye menjelang pemungutan suara. Masa tenang ini bukan hari tenang, namun dalam tingkat kesiagaan," kata pria yang duduk sebagai anggota DPR RI ini, Minggu (11/02) di Banyuwangi. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ketua Banggar DPR RI ini memandang bahwa masa tenang kampanye sebagai waktu paling krusial. Said meminta kepada para kader partai untuk memastikan tugas-tugasnya sudah selesai atau belum. "Saya sudah arahkan kantor DPC harus siaga penuh, buka mata buka telinga menerima laporan dari masyarakat dan menjaga suara PDI Perjuangan dan capres Ganjar-Mahfud," tegasnya. Said berharap kegiatan itu bukan kegiatan Kampanye, melainkan kegiatan penguatan saja atau patroli. "Penyelenggara pemilu ada Bawaslu yang mengawasi, partai ada juga yang mengawasi," tuturnya. Said melanjutkan dirinya mengapresiasi antusias masyarakat khususnya di Jawa Timur yang mengikuti kampanye pasangan capres dan cawapres nomor urut 03 di Banyuwangi pada Kamis, 8 Februari 2024. Hal tersebut juga menjadi kunci soliditas bagi seluruh pendukung di Jawa Timur. "Saya yakin kehadiran masyarakat di Jawa Timur sebagai bukti keyakinan mereka kepada PDI Perjuangan dan capres-cawapres yang akan dipilihnya," cetus Said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187676/said-abdullah-tekankan-kader-pdip-jatim-tak-boleh-lengah-di-masa-tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunian Tetap untuk 66 Korban Banjir Kalibaru Banyuwangi Mulai Dibangun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 14:47 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunian tetap bagi 66 warga korban Banjir Bandang di Dusun Krajan, Desa Kalibaru Wetan, Kecamatan Kalibaru, Banyuwangi mulai dibangun. Penanda dimulainya pembangunan atau ground breaking hunian tetap untuk korban banjir itu diresmikan Gubernur Jatim Khofifah Indar Parawansa. Rumah pengganti itu akan dibangun di petak lahan seluas 1,17 hektare yang merupakan lahan milik PTPN XII yang telah dibeli oleh Pemprov Jatim untuk warga korban banjir di Banyuwangi. Khofifah bersyukur hunian relokasi bagi korban banjir bandang di Kalibaru bisa segera terealisasi. Pemprov sempat membutuhkan banyak waktu untuk menyiapkan lahan sesuai dengan keinginan warga. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Lokasi hunian relokasi itu cukup ideal karena berada di wilayah perkampungan. Lokasinya cukup dekat dengan hunian awal warga yang rusak akibat banjir bandang akhir 2022 lalu. "Tak pernah relokasi menyambung dengan kampung seperti ini. Luar biasa. Mudah-mudahan proses pembangunan berjalan lancar. Masyarakat tidak perlu beradaptasi lagi dengan lingkungan baru karena ini tempat mereka bersosialisasi," ujar Khofifah. "Ini bukan relokasi namanya, tapi pindah rumah." Sebelum lokasi itu ditetapkan, kata Khofifah, Pemprov Jatim sebenarnya telah menawarkan 2 titik lain. Namun, warga tak menghendaki karena lokasinya yang cukup jauh dari perkampungan. Hal inilah yang menurut Khofifah menyebabkan proses relokasi korban banjir bandang di Banyuwangi berlangsung lebih lama ketimbang daerah lain. Namun ia bersyukur proses pemilihan lahan bisa rampung dan pembangunan bakal segera dimulai. Secara simbolis, Khofifah meluncurkan proses pembangunan hunian relokasi bersama Bupati Banyuwangi Ipuk Fiestiandani beserta sejumlah pejabat dari PTPN XII dan Kepala Basarnas Jatim. Proses pembangunan hunian relokasi diprakirakan rampung dalam 3 bulan. Masing-masing rumah akan dibangun dengan ukuran 5 meter x 6 meter. Pembangunan rumah itu didanai anggaran Pemprov Jatim sedangkan sarana-prasarana akan dilengkapi oleh Pemkab Banyuwangi. Bupati Banyuwangi Ipuk Fiestiandani menjelaskan Pemkab siap berkolaborasi dengan menyediakan sejumlah sarana-prasarana di lingkungan baru tersebut. Sarana-prasarana itu meliputi jaringan air bersih dan listrik. "Fasilitas tambahan akan kami lengkapi, akan kami beri dukungan," tambah Ipuk. Mewakili warga, Ipuk berterima kasih kepada Pemprov Jatim atas pembangunan hunian relokasi itu. Ia juga mengajak warga untuk merawat dan menjaga lingkungan agar bencana banjir bandang tidak kembali terulang. "Mudah-mudahan pembangunan hunian ini jadi penyemangat bagi warga Kalibaru untuk menjaga apa yang telah diberikan," sambung Ipuk. Diketahui, banjir bandang yang terjadi 3 November 2022 di Kalibaru menyebabkan puluhan rumah warga rusak. Sungai Sumberbaru dataran tinggi yang berada di sekitar sungai yang dihuni ratusan warga meluap. Selama lebih dari setahun Pemkab Banyuwangi telah memberikan biaya kontrak dan perbaikan rumah warga yang huniannya rusak berat. Dengan pembangunan hunian relokasi warga akan mendapat tempat tinggal permanen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187616/hunian-tetap-untuk-66-korban-banjir-kalibaru-banyuwangi-mulai-dibangun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesan Kapolda Jatim Saat Berangkatkan 1.013 Personel Amankan Pemilu 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 13:58 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polda Jatim menggelar apel terakhir pergeseran pasukan dalam rangka BKO ke wilayah-wilayah rawan untuk mengamankan Pemilu 2024. Ada 1.013 personel Polda Jatim yang BKO ke sejumlah polres yang membutuhkan penebalan pengamanan. Apel yang digelar di Lapangan Polda Jatim itu dipimpin Kapolda Jawa Timur Irjen Pol Imam Sugianto didampingi pejabat utama (PJU) Polda Jatim. Kapolda Jatim dalam arahannya mengatakan, Polda Jatim menyelenggarakan operasi kepolisian terpusat mantap Brata Semeru 2023-2024 dalam rangka pengamanan tahapan penyelenggaraan Pemilu 2024 di wilayah hukum Polda Jatim. "Beberapa hari ke depan kita akan memasuki tahapan penting dari tahapan Pemilu Serentak 2024, yaitu tahap pungut dan hitung suara tanggal 14 Februari 2024," kata Imam, Minggu (11/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Nanti personel-personel ini akan ditempatkan di TPS-TPS yang membutuhkan penebalan. Mudah-mudahan tiga hari ke depan semua terkonsolidasi dengan baik dan pengamanan TPS bekerja sama dengan TNI dan Linmas yang ditugaskan sudah siap, tanggal 14 Februari berjalan lancar," sambungnya. Imam melanjutkan, beberapa Polres sudah membuat inovasi-inovasi untuk menggugah para pemilih, terutama generasi millenial agar tertarik mendatangi TPS yang sudah ditentukan untuk menggunakan hak pilihnya. "Setelah mencoblos mereka bisa makan gratis di outlet-outlet di Surabaya, kurang lebih ada 100 ribu pemilih pertama yang menyalurkan suara," ungkap Imam. "Saya mengimbau kepada generasi muda, ayo sukseskan pemilu dengan mendatangi TPS. Mudah-mudahan partisipasi pemilih dalam Pemilu 2024 melebihi tahun 2019," lanjut dia. Sementara wilayah yang perlu mendapatkan penebalan pasukan, jelas Imam, Polresta Banyuwangi dan empat polres di Madura, terutama di Sumenep. Kemudian Polres Blitar Kota. "Kita belajar dari tahun 2019. Dulu di Madura, ada kotak suara hilang, diadakan PSU lagi, kemudian bentrokan pendukung yang fanatik antara pendukung paslon capres maupun cawapres, sampai berdampak pembakaran polsek di Sampang," jelas Imam. Ia juga mengungkapkan, ada 137 TPS rawan, di mana mayoritasnya ada di Madura. Polda Jatim juga akan menerapkan pola pengamanan TPS yang sangat rawan, yaitu dua TPS diamankan dua polisi. Polda Jatim pun sudah menyiapkan pasukan siaga untuk mengantisipasi kontigensi tiga SSK, baik Brimob maupun samapta setiap saat siap digerakkan. Berikut beberapa poin yang ditekankan Kapolda Jatim kepada pasukan dalam rangka Pam TPS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187542/pesan-kapolda-jatim-saat-berangkatkan-1-013-personel-amankan-pemilu-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khofifah Pamit dan Mohon Doa untuk Maju di Pilgub 2024 Bareng Emil Dardak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 13:44 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jawa Timur Kofifah Indar Parawansa berpamitan ke warga Banyuwangi, sekaligus meminta doa restu kembali maju di Pilgub Jatim. Ia menyatakan akan kembali maju bersama wakilnya saat ini Emil Elestianto Dardak. Gemuruh tepuk tangan dan ucapan syukur keluar dari mulut sekitar 100 warga yang hadir pada acara launching ground breaking pembangunan tempat relokasi warga pascabencana banjir bandang di Desa Kalibaru Wetan, Kecamatan Kalibaru, Kabupaten Banyuwangi, Minggu (11/2/2024). "Sekaligus menyampaikan mohon pangestu panjenengan semua, saya dan Pak Emil insyaallah akan maju kembali dalam pilgub tahun ini. Mohon doanya," ungkap Khofifah dengan senyum simpul. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Mohon doa dan dukungan dari semuanya, mudah-mudahan semua berjalan lancar dan teriring dengan rida barakallah, mudah-mudahan Banyuwangi barokah, mudah-mudahan Jawa Timur barokah, mudah-mudahan Indonesia barokah, Al-Fatihah," tambah Khofifah disambut bacaan Al-Fatihah warga Bumi Blambangan. Khofifah berpamitan kepada seluruh warga Banyuwangi yang hadir lantaran hari ini merupakan masa kerja terakhirnya sebagai Gubernur Jawa Timur periode 2019-2024. "Besok itu masa akhir jabatan saya untuk periode ini. Akan ada, saya tidak tahu atau sertijab atau dalam bentuk pelantikan di Jakarta, pj atau plh tanggal 13 Februari," ucap Khofifah dalam sambutannya di hadapan Bupati Banyuwangi Ipuk Fiestiandani dan warga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187518/khofifah-pamit-dan-mohon-doa-untuk-maju-di-pilgub-2024-bareng-emil-dardak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkosa Turis di Bali, Pemandu Wisata Ini Ditangkap Polisi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikSumutMinggu, 11 Feb 2024 05:00 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Saat diinterogasi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Bali. HJT dan temannya lalu menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, pelaku malah membawa mereka ke hotel lain di kawasan Benoa. Pelaku lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan aksi bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Sukadi menyebut HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Akibat perbuatannya, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sumut/hukum-dan-kriminal/d-7187081/perkosa-turis-di-bali-pemandu-wisata-ini-ditangkap-polisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa Tenang Pemilu, Polda Jatim Sebar 1.013 Personel di Daerah Rawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 04:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapolda Jatim Irjen Imam Sugianto mengungkapkan pihaknya menerjunkan ribuan personel saat memasuki masa tenang Pemilu 2024. Ribuan personel itu akan disebar di sejumlah titik rawan. "Kami upayakan mitigasi dan sudah tambah daerah rawan di mitigasi Sumenep dan 5 hari lalu sudah berangkat ke kepulauan di Kabupaten Sumenep," kata Imam saat ditemui awak media di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). Imam mengimbau masyarakat tetap beraktivitas seperti biasa saat masa tenang pemilu. Masa tenang Pemilu sendiri akan berlaku Minggu (11/2) hingga 13 Februari mendatang. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Minggu tenang besok dan para paslon tidak ada agenda, untuk minggu tenang ini kami imbau pada masyarakat beraktivitas seperti biasa dan (diharapkan) tidak terjadi kasus-kasus yang terhubung dengan pelaksanaan hari puncak (Pemilu 2024)," ujarnya. Sementara itu, Karo Ops Polda Jatim Kombes Puji Santosa mengatakan ribuan personel telah dipersiapkan pada apel terakhir pagi ini. Seluruhnya, akan diberangkatkan pada Minggu (11/2) nanti ke sejumlah titik. "Hari ini apel dan pengecekan terakhir, total 1.013 personel, besok akan laksanakan pemberangkatan ke lokasi masing-masing," tutur Puji. Ia menyebut ribuan personel itu bakal dikirim ke 6 titik. Diantaranya Banyuwangi Kota, Bangkalan, Sampang, Pamekasan, dan Sumenep. "Untuk Madura, seluruh kabupaten kita BKO sesuai permintaan dari kapolres masing-masing. Untuk pulau Madura kita berikan penambahan sekitar 750 personel terbagi menjadi 4 kabupaten," jelasnya. "Kita bekali mereka dengan anggaran atau uang saku dan uang makan, obat-obatan atau kesehatan, mereka wajib bawa jas hujan, senter, dan lain sebagainya, kami juga berikan buku panduan untuk melaksanakan tugas pam (pengamanan) di sana," imbuh dia. Ia memastikan seluruh personel yang diberangkatkan harus netral. Terutama saat pelaksanaan pemilu di hari H nanti atau Rabu, 14 Februari 2024 mendatang. "Polri harus netral dan tidak ikut menghitung hasil pungut (pemungutan suara) pada saat pencoblosan itu, jadi mereka tidak diperbolehkan, yang penting hanya mengamankan bagaimana pelaksanaan pencoblosan aman damai sesuai aturan yang berlaku," tandas Puji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187054/masa-tenang-pemilu-polda-jatim-sebar-1-013-personel-di-daerah-rawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eceng Gondok Sungai Buntung Penyebab Banjir Sidoarjo Ternyata Masih Banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 02:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guna mengantisipasi terjadinya banjir kembali di Waru, Sidoarjo, Pemprov Jatim melalui Dinas PU Sumber Daya Air (SDA) dan BPBD melakukan pengecekan sungai-sungai di sekitaran Waru. Kadis PU SDA Jatim Baju Trihaksoro mengatakan pihaknya telah mengecek langsung sungai-sungai di wilayah Waru yang menjadi daerah aliran sungai (DAS) Sungai Brantas. Sungai yang dicek di antaranya di Sungai Buntung, Desa Tambak Oso, Kecamatan Waru, Sidoarjo. "Pagi sampai siang ini kami telah melakukan pengecekan sungai yang jadi aliran Brantas di wilayah Waru," kata Baju, dalam keterangannya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami ingin pastikan keadaan sungai bersih dan tidak ada penumpukan enceng gondok, yang bisa menyebabkan penyumbatan air sehingga tidak lancar menuju muara," tambahnya Baju. Menurut Baju, salah satu sungai yang terhambat alirannya karena enceng gondok yakni Sungai Buntung. Dirinya bersama personel PU SDA Jatim, BPBD Jatim, serta Perum Jasa Tirta 1, dqn BBWS Brantas mengecek langsung kondisi terkini sungai tersebut. "Hasilnya masih terdapat koloni enceng gondok yang menyumbat aliran air Sungai Buntung dan ditengarai sebagai penyebab banjir di Kecamatan Waru beberapa hari kemarin," ujar Baju. Baju memastikan enceng gondok di Sungai Buntung akan segera dibersihkan agar aliran sungai lancar kembali dan tidak menyebabkan banjir. "Perum Jasa Tirta 1 rencananya akan membantu mengirimkan 1 unit excavator amphibi. Untuk mempercepat penanganan diperlukan koordinasi lebih lanjut terkait untuk penambahan alat guna mempercepat pekerjaan," ujarnya. "Kita juga akan mencari tempat pembuangan enceng gondok, serta memikirkan akses untuk excavator amphibi masuk. Secepatnya akan segera dibersihkan, dan akan dilakukan rapat koordinasi dengan mengundang instansi terkait untuk percepatan pelaksanaan kegiatan," tandas Mantan Kepala Dinas PU Cipta Karya ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187052/eceng-gondok-sungai-buntung-penyebab-banjir-sidoarjo-ternyata-masih-banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puluhan Ribu Buruh SKT Titip Pesan ke Ketua Projo Jatim: Matur Nuwun Jokowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:45 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketua DPD Pro Joko Widodo (Projo) Jawa Timur Bayu Airlangga bertemu dengan puluhan ribu buruh sigaret kretek tangan (SKT) di 4 wilayah berbeda yakni Mojokerto, Jombang, Nganjuk, dan Madiun. Dalam perjumpaannya dengan buruh SKT ini, Bayu mengaku mendapat banyak titipan aspirasi agar program-program Presiden Jokowi terus dilanjutkan. "Saya bertemu di 4 kabupaten berbeda, dan mereka semua ingin agar program Presiden Jokowi bisa diteruskan ke depan. Dan harapan buruh penerus Pak Jokowi ya Prabowo-Gibran," kata Bayu dalam keterangannya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Bayu menyebut para buruh SKT juga menyampaikan terima kasihnya kepada Presiden Jokowi yang sudah menurunkan cukai rokok SKT hingga di angka 4,7%. "Keberpihakan Pak Jokowi kepada rakyat, kepada buruh SKT diharapkan bisa diteruskan oleh penerus beliau yang akan memimpin 5 tahun ke depan," kata Bayu. Mantan Gubernur Jatim 2009-2019 yang turut hadir yakni Soekarwo (Pakde Karwo) menceritakan saat cukai SKT melambung tinggi 5 tahun silam. Kala itu cukai rokok SKT naik 16,44% berdasar Peraturan Menteri Keuangan (PMK) 152/2019 tentang Perubahan Kedua atas PMK 146/2017 tentang Tarif Cukai Hasil Tembakau. "Saya menerima masukan dari pabrik dan owner rokok SKT karena banyak PHK ketika cukai di angka 16 persen sekitar 4-5 tahun lalu. Kala itu, Hampir setengah pekerja buruh SKT di pabrik-pabrik di-PHK," ujar Pakde Karwo. "Kala itu masukan dari buruh yang saya tampung kemudian saya sampaikan langsung dan diterima Presiden Jokowi. Saat itu, Presiden yang langsung turun mengecek lapangan akhirnya ambil keputusan tidak ada kenaikan cukai untuk tahun 2021 sebagai komitmen pemerintah juga dalam recovery ekonomi saat pandemi COVID-19," tambah Pakde Karwo. Sukmini, salah satu buruh SKT asal Madiun menyampaikan terima kasihnya ke Presiden Jokowi karena telah menurunkan cukai rokok SKT dari awalnya hampir 16%, kini menjadi 4,7%. "Terima kasih Pak Jokowi yang peduli kepada buruh SKT. Ketika cukai itu di angka 16 persen, banyak PHK massal. Sekarang cukai sudah 4,7 persen, pabrik baru pakai pekerja lagi. Kami bisa bekerja lagi, saya harap penerus Pak Jokowi bisa melanjutkan program-program pro rakyat cilik," ujar Sukmini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187078/puluhan-ribu-buruh-skt-titip-pesan-ke-ketua-projo-jatim-matur-nuwun-jokowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Nyalla-Keponakan Khofifah Diprediksi Lolos Jadi Anggota DPD RI Versi ARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 00:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate Research and Consulting Indonesia (ARCI) merilis hasil terbaru elektabilitas calon Anggota DPD RI dari Jawa Timur. "Hasilnya, La Nyalla masih menjadi calon anggota DPD RI dengan elektabilitas tertinggi di Jawa Timur," kata Direktur ARCI Baihaki Sirajt saat paparan di Surabaya, Sabtu (10/2/2024). Baihaki kemudian menyebut peluang Keponakan Gubernur Jatim Khofifah Indar Parawansa, Lia Istifhama untuk lolos ke DPD RI sangat besar. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Elektabililtas Lia Istifhama menempel La Nyalla. Ini cukup mengejutkan mengingat Lia adalah pendatang baru," jelasnya. Dari jawaban responden, Baihaki menyebut gambar-gambar keponakan Khofifah ini cukup masif di daerah-daerah. Sehingga, banyak responden yang mengetahuinya. "Dan responden juga tertarik, karena Lia menjadi representasi wakil DPD RI perempuan. Jika pada Pileg 2019 lalu representasi perempuan itu ada di Eva Zainal Abidin, yang sekarang nyaleg di Gerindra, di Pileg 2024 ini beralih ke Lia," bebernya. Selain itu, Baihaki menyebut nama DPD RI inkumben seperti Ahmad Nawardi berpeluang lolos kembali ke Senayan untuk periode 2024-2029. "Sementara Mantan Ketua KPK Agus Raharjo elektabilitasnya masih rendah. Namun, undecided voters masih tinggi di angka 28 persen," tandas Baihaki. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas Calon DPD RI dari Jatim Periode 2024-2029: 1. La Nyalla Mattalitti 20,7%2. Lia Istifhama 15,6%3. Ahmad Nawardi 7,9%4. Abdul Qodir Amir 6,9%5. Adilla Azis 6,5%6. Ayub Khan 3,9%7. Agus Raharjo 3,6%8. Kuncung Wahyudi 2,8%9. Kondang Kusumaning Ayu 1,7%10. Bambang Haryanto 0,7%11. Catur Budi Utomo 0,5%12. Doddy Dwi Nugroho 0,2%13. Muhammad Tianto 0,1%Tidak tahu/tidak menjawab 28,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187050/la-nyalla-keponakan-khofifah-diprediksi-lolos-jadi-anggota-dpd-ri-versi-arci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitung-hitungan TKD Jatim dengan Gabungnya Kiai Khos ke Prabowo-Gibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:33 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Kampanye Daerah (TKD) melakukan kalkulasi dukungan masyarakat Jatim terhadap Prabowo-Gibran. Dukungan ini diketahui dari hasil data survei yang ada. Ketua TKD Jatim Prabowo Gibran, Boedi Prijo Suprayitno menyebut dukungan didominasi dua masyarakat dari organisasi NU dan Muhammadiyah. Hal ini didasarkan pada survei Poltracking. "Taruhlah warga NU Jatim dari 41 juta total penduduk Jatim, 60 persennya adalah warga NU atau sekitar 24 jutaan. Sementara itu, warga Muhammadiyah adalah 10 jutaan, atau 24 persen dari total penduduk Jatim dalam survei Poltracking arah dukungan warga Muhammadiyah ke Paslon 02 adalah 42 persen, sedangkan warga NU sekitar sesuai riset Poltracking per Februari adalah 60,9 persen mendukung Prabowo Gibran," papar Boedi, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Maka suara dukungan Muhammadiyah ke Prabowo Gibran, berdasar total hak pilih Jatim 31 juta, maka pemilih Muhammadiyah yang mendukung paslon 02 adalah 4,3 juta. Ditambah warga NU Jatim 60,9 persen atau berjumlah sekitar 14,616 juta maka potensi dukungan Prabowo Gibran dari NU dan Muhammadiyah di Jatim sebanyak 18,916 juta total perolehan suaranya," tambah Boedi. Boedi tidak memungkiri bahwa survei yang pernah dilakukan lembaga di Jatim turut mengaitkan kepuasan kepemimpinan Khofifah sebagai Gubernur Jatim dengan elektabilitas paslon 02. "Tercatat beberapa kiai dan pondok pesantren yang selama ini mendukung Khofifah Indar Parawansa, dipastikan mendukung Prabowo Gibran. Khofifah Effect tentu tidak hanya kiai dan pondok pesantren saja. Swing vote, pemilih milenial, hingga profesi warga Jatim juga tinggi mendukung Prabowo Gibran sebagai impact dari Khofifah Effect tersebut," jelasnya. "Taruhlah, para pelaku usaha, petani, pedagang, dan jutaan UMKM di Jatim yang telah menikmati kinerja Khofifah memimpin Jatim 5 tahun terakhir," tandas Boedi. Sementara itu, dukungan terhadap Prabowo-Gibran juga terus mengalir. Sejumlah kiai khos dan nyai di Jawa Timur. Mereka tampak turut hadir dalam acara Sholawatan Bersama Prabowo-Gibran Menang Sekali Putaran' yang digelar TKD Jatim 02 di Jatim Expo Surabaya. Dianantaranya hadir KH M Anwar Manshur, yang merupakan cucu pendiri Ponpes Lirboyo KH Abd Karim. Deretan kiai khos dan alim lainnya juga muncul di barisan paslon 02 antara lain, KH Fuad Noerhasan, Pengasuh Ponpes Sidogiri, Pasuruan. Mereka berdua secara bergiliran memanjatkan doa diamini puluhan ribu massa jemaah solawatan yang hadur. Kiai Anwar Manshur, kemudian KH Fuad Noerhasan, dan KH Anwar Iskandar, Rois Syuriah PBNU, yang juga pendiri Ponpes As Saidiyaj, Kota Kediri ini, membacakan doa khusus. "Kabulkan Prabowo Gibran menjadi Presiden dan Wakil Presiden RI, di Pemilu 2024, dan Bu Khofifah Indar Parawansa, jadi Gubernur dua periode," ujarnya. Dengan kehadiran tokoh kiai khos dan alim di Jawa Timur, ini tentu akan diikuti oleh masyarakat NU yang berprinsip nderek kiai (ikut kiai,red). Sedikitnya 31 juta lebih pemilih yang masuk di daftar pemilih tetap (DPT) akan menggunakan suaranya di Pemilu dan Pilpres 2024, besok. Berikut daftar Kiai yang mendukung Prabowo Gibran di Jatim: KH. Anwar Mansur Pp Lirboyo KediriKH. Fuad Nur Hasan Pp SidogiriKH. Anwar Iskandar Pp Al Amin KediriKH. Abdul Ghofur Pp. Sunan Drajat LamonganKH Agus Ubaidillah Faqih Langitan Tuban Kh. M. Hasan Mutawakkil Alallah Pp Genggong ProbolinggoKH. Asep Saifuddin Chalim Pp Ammanatul Ummah MojokertoKH. Muchlis Alawy Pp Attaroqqi Tsani SampangKH. Syafiuddin Wahid SampangKH. Abdul Hamid Mannan Pamekasan Ibu Nyai Mahfudhoh Wahab Hasbullah Pp Tambakberas Ibu Nyai MasrurohKH. Hasib Wahab Hasbullah Pp TambakberasKH. Fahrur Rozi Pp An-nur I MalangKH. Abdul Qodir Pp Al Qodariyah Sumenep Kh. Nurullah Pp Al IstifadahKH. Ghozali Pp Lanbulan Sampang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187010/hitung-hitungan-tkd-jatim-dengan-gabungnya-kiai-khos-ke-prabowo-gibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Amalan Bulan Syaban yang Disunnahkan, Yuk Amalkan!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikSulselSabtu, 10 Feb 2024 22:21 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulan Syaban 1445 H jatuh pada tanggal 11 Februari 2024 dalam penanggalan Masehi. Terdapat sejumlah amalan yang dianjurkan untuk dikerjakan umat Islam. Lantas, apa saja amalan bulan Syaban yang dapat dikerjakan? Melansir NU Online Jatim, Syaban menjadi salah satu bulan yang biasa dilupakan karena diapit dua bulan mulia yaitu Rajab dan Ramadhan. Padahal, Syaban merupakan bulan diangkatnya amal-amal manusia sebagaimana sabda Rasulullah SAW berikut: 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ ذاكَ شهر تغفل الناس فِيه عنه ، بين رجب ورمضان ، وهو شهر ترفع فيه الأعمال إلى رب العالمين، وأحب أن يرفع عملي وأنا صائم -- حديث صحيح رواه أبو داود النسائي Artinya: Bulan Syaban adalah bulan yang biasa dilupakan orang, karena letaknya berada di antara Rajab dengan Ramadan. Bulan Syaban adalah bulan diangkatnya amal-amal. Karenanya, aku menginginkan pada saat diangkatnya amalku, aku dalam keadaan sedang berpuasa. (HR Abu Dawud dan Nasa'i) Untuk itu, umat muslim dianjurkan memperbanyak amalan di bulan Syaban. Nah, berikut 8 amalan bulan Syaban lengkap dengan keistimewaannya yang dilansir dari buku Kalender Ibadah Sepanjang Tahun oleh Ustaz Abdullah Faqih Ahmad Abdul Wahid. Yuk, disimak! 1. Berdoa di Bulan Syaban Memasuki bulan Syaban, terdapat doa yang dibaca Rasulullah SAW. Berikut bacaan doanya lengkap Arab, Latin, dan artinya: اللَّهُمَّ بَارِكْ لَنَا فِي رَجَبَ وَشَعْبَانَ وَبَلِّغْنَا رَمَضَانَ Arab Latin: Allaahumma baarik lanaa fii rajaba wa sya'baana wa ballighnaa ramadhaana Artinya: "Ya Allah, berkahilah kami di bulan Rajab dan Syaban, dan sampaikanlah kami kepada bulan Ramadhan." Doa tersebut dianjurkan untuk dibaca berulang kali ketika memasuki bulan Syaban. Pasalnya, semakin sering dibaca maka semakin besar pahalanya. Selain itu, ada pula doa lainnya yang biasa dibaca oleh para sahabat Nabi SAW di bulan Rajab dan Syaban. Bacaan doanya sebagai berikut: اللَّهُمَّ سَلَّمْنِي لِرَمَضَانَ وَسَلَّمْ لِي رَمَضَانَ وَتَسَلَّمْهُ مِنِّي مُتَقَبَّلا Arab Latin: Allaahumma sallimnii liramadhaana wasallim lii ramadhaana wa tasallam-hu minni mutaqabbalan Artinya: "Ya Allah, antarkanlah aku hingga sampai Ramadhan, dan antarkanlah Ramadhan kepadaku, dan terimalah amal-amalku di bulan Ramadhan." 2. Berdoa di Malam Nifsu Syaban Malam Nifsu Syaban menjadi salah satu waktu istimewa dalam ajaran Islam. Di waktu ini, umat muslim juga dianjurkan memanjatkan doa kepada Allah. Doa yang dilafalkan dikutip oleh para ulama dari doa Nabi Adam ketika turun ke Bumi, thawaf tujuh kali di Ka'bah, dan salat dua rakaat di belakang maqam. Berikut bacaan doanya: اللَّهُمَّ إِنَّكَ تَعْلَمُ سِرِّي وَعَلَانِيَتِي فَاقْبَلْ مَعْذِرَتِي، وَتَعْلَمُ حَاجَتِي فَأَعْطِنِي سُؤَلِي، وَتَعْلَمُ مَا فِي نَفْسِي فَاغْفِرْ لِي ذَنْبِي اللَّهُمَّ إِنِّي أَسْأَلُكَ إِيْمَانًا يُبَاشِرُ قَلْبِيْ وَيَقِيْنَا صَادِقًا حَتَّى أَعْلَمَ أَنَّهُ لَا يُصِيبُنِي إِلَّا مَا كَتَبْتَ لِي وَرَضِنِي بِقَضَائِكَ Arab Latin: Allaahumma innaka ta'lamu sirrii wa 'alaaniyati faqbal ma'dzirati, wata'lamu haajatii fa'thinii suaa-li, wata'lamu maa fii nafsii faghfir lii dzambii. Allaahumma innii as-aluka imaanan yubasyiru qalbii wa yaqiinan shaadiqan hattaa a'lamu annahu laa yushiibunii illaa maa katabta lii waraddani biqadhaa-ik. Artinya: "Ya Allah, sungguh Engkau tahu apa yang tersembunyi dan tampak dariku, karena itu terimalah penyesalanku. Engkau tahu kebutuhanku, maka kabulkanlah permintaanku. Engkau tahu apa yang ada dalam diriku, maka ampunilah dosaku. Ya Allah sungguh aku memohon kepada-Mu iman yang menyentuh kalbuku dan keyakinan yang benar sehingga aku tahu bahwa tidak akan menimpaku kecuali telah Engkau tetapkan atasku. Ya Allah berikanlah rasa rela terhadap apa yang Engkau bagi untuk diriku." 3. Berpuasa di Bulan Syaban Amalan sunah selanjutnya yaitu dengan melaksanakan puasa. Umat muslim yang mengerjakannya tidak terikat pada ketentuan khusus sehingga tidak ada tanggal atau hari tertentu untuk mengerjakannya. Apabila dikerjakan, pahala yang didapatkan sangat besar karena bulan Syaban termasuk ke dalam bulan mulia. Untuk itu, berikut beberapa puasa yang bisa dikerjakan selama bulan Syaban. Sebagian ulama berpendapat bahwa puasa di pertengahan bulan Syaban hukumnya sunnah. Sebagaimana sabda Rasulullah SAW berikut ini: "Jika tiba waktu malam nisfu Syaban, maka beribadahlah di malamnya dan puasalah di siangnya, karena sesungguhnya Allah Ta'ala menurunkan rahmat-Nya mulai tenggelamnya matahari (Maghrib) di langit dunia dan berfirman, 'Siapa yang meminta ampun akan Aku ampuni. Siapa yang minta rezeki akan Aku beri rezeki. Siapa yang terkena musibah akan Aku sembuhkan. Siapa yang minta ini dan itu seterusnya, sampai waktu terbitnya fajar (matahari)." (HR. Ibnu Majah). Rasulullah SAW memperbanyak puasa sebagai salah satu amalan pada bulan Syaban. Bahkan, dalam sebuah hadis disebutkan bahwa Rasulullah SAW berpuasa sunah di bulan ini hampir satu bulan penuh. Sebagaimana pernah dikatakan Aisyah RA dalam hadis riwayat Bukhari dan Muslim berikut: "Saya tidak pernah melihat Rasulullah SWT melakukan puasa satu bulan penuh kecuali pada bulan Ramadhan. Dan, saya juga tidak pernah melihatnya sangat banyak melakukan puasa selain pada bulan Syaban." (HR. Bukhari dan Muslim). Dalam hadis riwayat Tirmidzi dan Nasa'i juga disebutkan bahwa Ummu Salamah sebagai berikut: "Saya tidak pernah melihat Rasulullah SAW berpuasa dua bulan berturut-turut, kecuali pada bulan Syaban dan bulan Ramadhan." Beberapa hadits meriwayatkan bahwa hari Kamis dan Senin di bulan Syaban memiliki keistimewaan yang luar biasa apabila diisi dengan berpuasa. Berpuasa pada hari Kamis di bulan Syaban sendiri termasuk salah satu amalan yang memiliki keutamaan. Dalam sebuah hadis dijelaskan bahwa pada hari Kamis bulan Syaban para malaikat sibuk menghiasi langit. Kemudian mereka berseru, "Wahai Tuhan kami, ampunilah orang- orang yang berpuasa pada hari ini dan kabulkanlah doa mereka." Selain itu, Rasulullah SAW bersabda sebagai berikut: "Barang siapa berpuasa pada hari Senin dan Kamis di bulan Syaban, maka Allah SWT akan mengabulkan kepentingan dunia dan akhiratnya masing-masing dua puluh kepentingan." 4. Membaca Surah Yasin di Malam Nifsu Syaban Amalan berikutnya yang bisa dikerjakan adalah membaca surah Yasin di malam Nifsu Syaban. Waktu pengerjaannya yaitu setelah salat magrib dan lebih utama jika dikerjakan bersama-sama. Adapun amalan yang sangat dianjurkan ini dikerjakan secara berturut-turut sebanyak tiga kali. Bacaan pertama diniatkan untuk meminta umur panjang yang diisi dengan ketaatan kepada Allah SWT. Bacaan Yasin kedua diniatkan agar dijaga dari semua bahaya dan diberi keluasan rezeki yang baik serta halal. Bacaan yang ketiga diniatkan agar hati merasa cukup dan dianugerahi husnul khatimah. Apabila telah selesai membaca surah Yasin, umat muslim disunahkan membaca doa berikut: بِسْمِ اللهِ الرَّحْمَنِ الرَّحِيمِ. اللَّهُمَّ يَا ذَا الْمَنِّ وَلَا يُمَنُ عَلَيْهِ، يَا ذَا الْجَلَالِ وَالْإِكْرَامِ، يَا ذَا الطَّوْلِ وَالْإِنْعَامِ، لَا إِلَهَ إِلَّا أَنْتَ ظَهْرَ اللَّاجِيْنَ، وَجَارَ الْمُسْتَجِيْرِينَ، وَمَأْمَنَ الْخَائِفِينَ اللَّهُمَّ إِنْ كُنْتَ كَتَبْتَنِيْ عِنْدَكَ فِي أُمَ الْكِتَابِ شَقِيًّا أَوْ مَحْرُوْمًا أَوْ مَطْرُوْدًا أَوْ مُقَتَّرًا عَلَيَّ فِي الرِّزْقِ فَامْحُ مِنْ أُمَ الْكِتَابِ شَقَاوَتِي وَحِرْمَانِي وَتَقْتِيرَ رِزْقِي، وَأَثْبِتْنِي عِنْدَكَ سَعِيدًا مَرْزُوْقًا مُوَفَقًا لِلْخَيْرَاتِ، فَإِنَّكَ قُلْتَ وَقَوْلُكَ الْحَقُّ فِي كِتَابِكَ الْمُنْزَلِ عَلَى لِسَانِ نَبِيِّكَ الْمُرْسَلِ يَمْحُو اللَّهُ مَا يَشَاءُ وَيُثْبِتُ وَعِنْدَهُ أُمُّ الْكِتَابِ). إِلهِي بِالتَّجَلِي الْأَعْظَمِ فِي لَيْلَةِ النِصْفِ مِنْ شَعْبَانَ الْمُكَرَمِ الَّتِي يُفْرَقُ فِيْهَا كُلُّ أَمْرٍ حَكِيمٍ وَيُبْرَمُ، إِكْشِفْ عَنِّي مِنَ الْبَلَاءِ مَا أَعْلَمُ وَمَا لَا أَعْلَمُ وَاغْفِرْ لِي مَا أَنْتَ بِهِ أَعْلَمُ إِنَّكَ أَنْتَ الْأَعَزُ الْأَكْرَمُ. وَصَلَّى اللَّهُ تَعَالَى عَلَىسَيِّدِنَا مُحَمَّدٍ وَعَلَى آلِهِ وَصَحْبِهِ وَسَلَّمَ Arab Latin: Bismillaahir rahmaanir rahim. Allaahumma yaa dzal manni wa laa yumannu 'alaika yaa dzal jalaali wal ikraam, yaa dzath thauli wal in'aam. Laa ilaaha illaa anta zhahral laajiina wajaaral mustajiiriina wa ma' manal khaa-ifiin. Allaahumma in kunta katabtanaa indaka fii ummil kitaabi asyiqiyaa'a au mahruumiina au muqtarran 'alaina fir rizqi fahumllaahumma bifadhlika syaqaawatanaa wa hirmaananaa wa iqtaara arzaaqinaa wa atsbitnaa 'indaka fii ummil kitaabi su'adaa'a marzuuqina muwaffaqiin lil khairaat. Fa- innaka qulta waqaulukal haqqu fii kitaabikal munzali 'alaa lisaani nabiyyikal mursal, yamhullaahu maa yasyaa-u wa yutsbitu wa 'indahu ummul kitaab. Ilaahii bit tajallil a'zhami fii lailatin nishfi min syahri sya'baanal mukarram allatii yufraqu fiiha kullu amrin hakiimin wa yubram nas-aluka an taksyifa 'annaa minal balaa-i maa na'lamu wa maa laa na'lam, wa maa anta bihi a'larna. Innaka antal a'azzul akram. Wa shallallaahu 'alaa sayyidinaa muhammadin wa 'alaa aalihi wa shahbihi wa sallam. Artinya: "Dengan menyebut nama Allah yang Maha pemurah lagi Maha Penyayang. Ya Allah, wahai Dzat yang mempunyai anugerah, dan Engkau tidak diberi anugerah, wahai Dzat yang mempunyai kebesaran dan kemuliaan, wahai Dzat yang mempunyai kekuasaan dan memberikan kenikmatan, tiada Tuhan melainkan Engkau. Engkau- lah Penolong orang-orang yang memohon pertolongan, Pelindung orang-orang yang mencari perlindungan, dan Pemberi Keamanan kepada orang-orang yang ketakutan. Ya Allah, jika Engkau mencatat kami di sisi-Mu dalam induk catatan sebagai orang-orang yang celaka, terhalang dari rahmat-Mu dijauhkan dari-Mu, atau disempitkan dalam mendapat rezeki, dengan karunia-Mu, ya Allah, hapuskanlah kecelakaan kami, keterhalangan kami, kejauhan kami dari rahmat-Mu, dan kesempitan rezeki kami. Dan tetapkanlah kami di sisi-Mu dalam catatan sebagai orang-orang yang berbahagia, diberi rezeki yang luas, serta diberi petunjuk menuju kebajikan. Karena sesungguhnya Engkau telah berfirman dalam kitab-Mu yang telah diturunkan kepada rasul-Mu, sedangkan firman-Mu itu benar, Allah menghapus dan menetapkan apa yang dikehendaki-Nya dan di sisi-Nya terdapat induk kitab. Tuhan kami, dengan tajalli-Mu (penampakan sifat-Mu) Yang Maha Besar pada malam Nishfu Sya'ban yang mulia ini, saat setiap urusan dibedakan dan ditetapkan di dalamnya, kami memohon kepada-Mu agar Engkau palingkan kami dari segala bencana, baik yang kami ketahui maupun yang tidak kami ketahui. Sesungguhnya, Engkau Dzat Yang Paling Mulia dan Paling Pemurah. Dan, semoga Allah senantiasa memberi rahmat serta kesejahteraan kepada junjungan kami Nabi Muhammad, keluarganya, dan sahabatnya." Doa lainnya yang bisa dibaca setelah membaca surah Yasin diambil dari Syekh Abdul Qadir Jailani. Berikut rincian bacaan doa dan terjemahannya: اللَّهُمَّ إِذْ أَطْلَعْتَ لَيْلَةَ النِّصْفِ مِنْ شَعْبَانَ عَلَى خَلْقِكَ، فَعُدْ عَلَيْنَا بِمَنِكَ وَعِتْقِكَ، وَقَدِرْ لَنَا مِنْ فَضْلِكَ، وَوَسِعْ رِزْقَكَ، وَاجْعَلْنَا مِمَّنْ يَقُوْمُ لَكَ فِيْهَا بِبَعْضِ حَقِكَ. اللَّهُمَّ مَنْ قَضَيْتَ فِيْهَا بِوَفَاتِهِ فَاقْضِ مَعَ ذَلِكَ رَحْمَتَكَ، وَمَنْ قَدَّرْتَ طُولَ حَيَاتِهِ فَاجْعَلْ مَعَ ذَلِكَ نِعْمَتَكَ، وَبَلَغْنَا مَا لَا تَبْلُغُ الْآمَالُ إِلَيْهِ يَا خَيْرَ مَنْ وَقَفَتِ الْأَقْدَامُ بَيْنَ يَدَيْهِ يَارَبَّ الْعَالَمِينَ، بِرَحْمَتِكَ يَا أَرْحَمَ الرَّاحِمِينَ. وَصَلَّى اللهُ تَعَالَى عَلَى سَيِّدِنَا مُحَمَّدٍ خَيْرِ خَلْقِهِ وَعَلَى آلِهِوَصَحْبِهِ أَجْمَعِينَ Arab Latin: Allahumma idz ath-la'ta lailatan nishfi min sya'baana 'alaa khalqika, fa'ud 'alainaa bimannika wa 'itqika, wa qaddir lanaa min fadhlika, wa wassi' rizqaka, waj'alnaa mimman yaquumu laka fiihaa biba'dhi haqqika. Allahumma man qadhaita fiihaa biwafaatihi faqdhi ma'a dzaalika rahmataka, wa man qaddarta thuula hayaatihi faj'al ma'a dzaalika ni'mataka, wa ballighnaa maa laa tablughul aamaalu ilaihi yaa khaira man waqafatil aqdaamu baina yadaihi yaa rabbal 'aalamiina, birahmatika yaa arhamar raahimiina. Wa shallallahu ta'aalaa 'alaa sayyidinaa muhammadin khairi khalqihi wa 'alaa aalihi wa shahbihi ajma'iina. Artinya: "Ya Allah, jika Engkau telah memunculkan malam Nisfu Sya'ban pada makhluk-Mu maka curahkan atas kami anugerah dan pembebasan-Mu (dari neraka), takdirkanlah untuk kami kebaikan dari keutamaan-Mu, perluaslah curahan rezeki-Mu untuk kami, jadikanlah kami di malam itu termasuk orang yang bangkit melaksanakan hak-Mu. Ya Allah, orang yang Engkau tentukan takdirnya di malam itu dengan kematiannya, maka bersamakanlah dengan rahmat-Mu, dan orang yang Engkau takdirkan berumur panjang maka jadikanlah rahmat-Mu bersamanya, dan sampaikanlah kami pada tujuan mulia yang tidak tercapai oleh angan-angan, wahai sebaik-baik Dzat yang bersimpuh di hadapan-Nya semua telapak kaki, wahai Tuhan sekalian alam, dengan rahmat-Mu, wahai Dzat Yang Paling Pengasih. Semoga shalawat Allah tercurah pada junjungan kami Nabi Muhammad, sebaik-baik makhluk, dan atas keluarga serta sahabat kesemuanya." 5. Berdzikir Pada bulan Syaban ini, umat muslim juga dianjurkan untuk memperbanyak dzikir sebagai bentuk penghambaan kepada Allah SWT. Bentuk dzikir yang biasa dilakukan oleh para ulama yaitu sebagai berikut: Dzikir yang pertama yaitu dengan membaca istighfar. Bacaan istighfar ini dibaca sebanyak 70 kali setiap harinya. Berikut bacaan dan terjemahannya: أَسْتَغْفِرُ اللهَ وَأَسْأَلُهُ التَّوْبَةَ Arab Latin: Astaghfirullaaha wa as-aluhut taubah Artinya: "Aku memohon ampun kepada Allah dan aku meminta kepada-Nya agar diterima tobatku." Selain itu, bacaan istighfar berikut ini juga bisa dibaca sepanjang bulan Syaban: أَسْتَغْفِرُ اللهَ الَّذِي لَا إِلَهَ إِلَّا هُوَ الرَّحْمَنُ الرَّحِيمُ الْحَيُّ الْقَيُّومُ وَأَتُوْبُ إِلَيْهِ Arab Latin: Astaghfirullaahaladzii laa ilaaha illaa huwar rahmaanur rahiimul hayyul qayyuumu wa atuubu ilaih Artinya: "Aku memohon ampun kepada Allah, tiada Tuhan selain Dia, Yang Maha Pengasih, Maha Penyayang, Yang Maha Hidup, Yang Maha Berdiri Sendiri, dan aku bertobat kepada-Nya." Selanjutnya yaitu membaca bacaan dzikir sebanyak 70 kali setiap harinya. Berikut rincian bacaannya: لَا إِلَهَ إِلَّا اللهُ وَلَا نَعْبُدُ إِلَّا إِيَّاهُ مُخْلِصِينَ لَهُ الدِّينَ وَلَوْ كَرِهَ الْمُشْرِكُونَ Arab Latin: Laa ilaaha illallaahu wa laa na'budu illaa iyyahu mukhlishiina lahud diina wa lau karihal musyrikuuna Artinya: "Tiada Tuhan selain Allah dan kami tidak menyembah selain kepada-Nya dengan memurnikan ketaatan kepada-Nya meskipun orang-orang musyrik membencinya." 6. Bersedekah Amalan yang dianjurkan pada bulan Syaban selanjutnya yaitu bersedekah. Sebagaimana diriwayatkan Imam Shadiq ketika ditanya tentang amalan terbaik di bulan Syaban. Imam Shadiq mengatakan bersedekah dan beristighfar merupakan amalan terbaik. Sebagaimana yang dijelaskannya sebagai berikut: "Bershadaqah dan membaca istighfar. Barang siapa bershadaqah di bulan Sya'ban, maka Allah Swt. akan memelihara shadaqah tersebut sebagaimana salah seorang dari kalian memelihara anak untanya, sehingga pada hari kiamat, shadaqah tersebut sampai di tangan pemiliknya sebesar Gunung Uhud." 7. Melakukan Salat Sunah Salat sunnah dianjurkan untuk dilakukan setiap hari Kamis pada bulan Syaban. Salat sunah bulan Syaban ini dikerjakan sebanyak dua rakaat. Pada masing-masing rakaat membaca al-Fatihah kemudian diikuti surah pendek al-Ikhlas yang dibaca sebanyak 100 kali. Kemudian, setelah salam dianjurkan untuk membaca shalawat sebanyak 100 kali. 8. Berpuasa Ayyamul Bidh Amalan terakhir yang dianjurkan untuk dilakukan pada bulan Syaban yaitu berpuasa Ayyamul Bidh. Puasa Ayyamul Bidh merupakan puasa pertengahan bulan pada tanggal 13, 14, dan 15 dalam penanggalan Hijriah. Dinukil dari laman NU Online, puasa Ayyamul Bidh dimulai dengan membaca niat puasa mutlak, seperti "Saya niat puasa". Namun, lebih baik membaca niat khususnya sebagai berikut: نَوَيْتُ صَوْمَ أَيَّامِ الْبِيْضِ لِلّٰهِ تَعَالَى Arab Latin: Nawaitu shauma ayyâmil bîdl lilâhi ta'âlâ Artinya: "Saya niat puasa Ayyamul Bidl (hari-hari yang malamnya cerah), karena Allah ta'âlâ." Keistimewaan Bulan Syaban Keistimewaan bulan Syaban ditafsirkan oleh beberapa ulama sebagai yang penuh dengan kemuliaan. Masih melansir buku Kalender Ibadah Sepanjang Tahun, berikut daftar keistimewaan bulan Syaban: Demikianlah amalan yang dapat dikerjakan pada bulan Syaban lengkap dengan keistimewaannya. Diamalkan ya, detikers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sulsel/berita/d-7187007/8-amalan-bulan-syaban-yang-disunnahkan-yuk-amalkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahok Sindir Kinerja Jokowi dan Gibran, Emil Dardak Pasang Badan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:05 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emil Dardak, juru Bicara Gibran Rakabuming Raka buka suara terkait kritikan Ahok yang bertanya kinerja Presiden Jokowi dan Wali Kota Solo Gibran Rakabuming Raka. Pernyataan Ahok viral di media sosial dan belakangan Ahok sendiri merasa bahwa kalimatnya itu dipotong di video viral. Emil menyebut kritik dari Ahok senantiasa diterima sebagai masukan oleh Gibran. Emil menyebut Gibran lapang dada mendapat kritik dari Ahok. "Semua kritik diterima oleh Gibran dengan lapang dada," kata Emil di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Menurut Emil, Gibran justru mengapresiasi kinerja Ahok selama ini mulai memimpin DKI Jakarta hingga memimpin dewan komisaris di Pertamina. "Gibran mengatakan Bang Ahok relatif baik kinerjanya dan menjadi rujukan," tambahnya. Meski begitu, Wagub Jatim ini menegaskan Gibran sosok pekerja keras dan bisa bekerja. Hal itu dibuktikan dengan capaian di Kota Surakarta. "Saya berpendapat Gibran bisa kerja. Saya sudah melakukan penelaahan empiris apa yang dilakukan Gibran dalam memimpin Solo," ujarnya. "Jadi saya rasa semua pandangan-pandangan itu kita hormati bahwa ada pihak-pihak yang punya pandangan lain itu jadi sarana untuk introspeksi diri semakin berbenah ke depannya. Kita ikuti keteladanan Gibran yang senantiasa lapang dada menerima masukan dan saran," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186998/ahok-sindir-kinerja-jokowi-dan-gibran-emil-dardak-pasang-badan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUI Jatim Sebut Golput Haram Jika Bawa Mudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 20:59 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUI Jatim meminta agar semua warga menggunakan hak pilihnya pada 14 Februari 2024 mendatang. MUI lalu mengimbau masyarakat agar tak golput. Ketua Umum MUI Jatim KH Mutawakkil Alallah mengatakan tidak ada capres-cawapres yang sempurna. Sebab menurutnya setiap calon pasti punya kelebihan dan kekurangan. "Yang jelas semua capres dan cawapres ada tiga ini adalah kader-kader dan tokoh-tokoh terbaik bangsa. Dan tentu kita tidak akan menemukan manusia yang sempurna, pasti di samping kelebihan ada kekurangan. Oleh karena itu pilih salah satu dari tiga ini yang diyakini untuk menjadi pemimpin nasional untuk memberi kesejahteraan ke rakyat," kata Mutawakkil di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Jangan sia-siakan hak pilih, kalau sampai golput dan mengakibatkan kegagalan pemilu itu dosa hukumnya haram karena itu membawa mudarat kepada umat bangsa dan negara. Akan menjadikan tatanan pemerintahan Indonesia semrawut," tambahnya. Menurut Mutawakkil, menggunakan hak pilih dalam demokrasi sesuai dengan ajaran Islam. Sebab, hal itu merupakan bagian dari menjaga kedaulatan negara. "Pemilu ini pemenuhan negara terhadap kedaulatan rakyat. Seluruh masyarakat, seluruh umat yang memiliki hak pilih gunakan hak pilihnya pada 14 Februari nanti, pilih pilpres sampai DPR, karena ini untuk keberlanjutan estafet nasional ini bagian menjaga kedaulatan negara," ujarnya. "Menjaga kedaulatan negara sama wajibnya menjaga martabat dan nilai agama. Golput bukan pilihan, tapi menyia-nyiakan hak yang diberi Allah itu lebih tidak baik," tambahnya. Pengasuh Ponpes Genggong Probolinggo ini berharap Pemilu 2024 bisa berjalan dengan baik, lancar, jujur, adil, dan bisa melahirkan pemimpin terbaik. "Kita berharap pemilu berjalan dengan damai, jurdil, dan Allah menganugerahkan bangsa kita pemimpin yang bisa membawa negara ini menjadi negara maju, adil, makmur, adil, sejahtera, gemah ripah, menjadi bangsa bermartabat dan dihagai oleh bangsa-bangsa lain di dunia," ujarnya. "Ingat golput kalau sampai mengakibatkan gagalnya pemilu sehingga rusaknya tatanan pemerintah, tentu itu haram, karena membawa mudarat," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186956/mui-jatim-sebut-golput-haram-jika-bawa-mudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisah Cordo Tuban, Nama Lahirnya Panjang 19 Kata hingga Sulit Bikin Akta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 19:09 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada 6 Januari 2019, lahir seorang anak bernama Rangga Madhipa Sutra Jiwa Cordosega Akre Askhala Mughal Ilkhanat Akbar Sahara Pi-Thariq Ziyad Syaifudin Quthuz Khoshala Sura Talenta. Namanya panjang hingga 19 kata. Ia akrab dipanggil Cordo. Ia merupakan buah hati atau putra kedua dari pasangan Arif Akbar (29) dan Suci Nur Aisyiah (26), yang tinggal di Desa Ngujuran, Kecamatan Bancar, Tuban. Karena namanya terlalu panjang, Cordo kesulitan mendapatkan akta lahir. Itu seperti yang disampaikan sang ayah. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Iya sudah beberapa kali ke kantor Dukcapil Tuban. Informasi yang kita dapat katanya di SIAK namanya melebihi 50 karakter. Ini lho sudah tiga tahun," jelas Arif saat dihubungi detikJatim, Senin ( 4/10/2021). Nama untuk Data Dukcapil Maksimal 55 Karakter Nama Cordo lebih dari 55 karakter bahkan mencapai 132 karakter. Sehingga tidak bisa masuk data Dukcapil. Itu seperti yang disampaikan Kepala Dinas Kependudukan dan Catatan Sipil (Dukcapil) Tuban, Ubait Rohman. Menurutnya, semua dokumen kependudukan itu terintegrasi dengan pusat, yang terkoneksi dengan Sistem Informasi Administrasi Kependudukan (SIAK). "Dukcapil itu sistemnya sudah diatur oleh pusat dan nasional. Melalui SIAK yang ada di Dirjen Dukcapil. Terkait aturan juga sudah digariskan di sana. Mulai dari sistemnya, aplikasinya juga," kata Ubait. "Jadi di dalam pengisian database itu ada aplikasinya. Dalam penulisan nama warga atau penduduk, baik itu yang baru lahir maupun yang belum terdata, itu semua sudah ada aplikasinya yang telah ditetapkan oleh Direktorat Jenderal itu sebanyak 55 karakter (nama). Jadi kalau melebihi 55 karakter ya tidak bisa dimasukkan," imbuhnya. Nama Cordo yang Capai 19 Kata Pemberian Paman Sang Ayah Arif menuturkan, nama yang terdiri dari 19 kata atau 115 huruf itu merupakan hasil diskusi bersama pamannya Mujoko Zahid. Yang merupakan budayawan asal Bumi Ronggolawe Tuban. Menurutnya, nama tersebut mempunyai makna yang sangat luas. "Harapan kami semoga anak itu kelak berpenalaran landung selandung namanya. Dan Menjadi inspirasi peradaban umat manusia," kata Arif kepada detikcom, Selasa (12/2/2019). Sang ayah menambahkan, nama putra keduanya itu memiliki hubungan dengan sejarah nama Kota Teladan Islam. Dengan harapan, kelak anak tersebut bisa menjadi tokoh yang mendunia. "Maknanya anak itu kelak menjadi tokoh dunia yang mendunia. Menjadi diri yang tidak berpikir lokal, sempit atau primordial. Tetapi mempunyai wawasan global sekaligus memiliki karsa dan power untuk merealisasikan wawasan besarnya. Kuat namun berjiwa lembut yang welas asih," terang Arif. Nama Cordo yang Capai 19 Kata Disarankan Diganti Dukcapil Tuban menyarankan agar nama Cordo diganti. Menanggapi hal itu, Arif pada dasarnya menyayangkan jika harus sampai mengganti nama anak. Sebab nama itu berisi doa dan harapan. "Saya disuruh mengubah nama anak, padahal nama tersemat doa untuk kebaikannya. Kalau harapan tentu bisa diproses aktanya, karena saat masuk TK akta dibutuhkan," kata Arif. Arif akan bersedia mengubah nama Cordo jika ada surat keterangan resmi dari Dukcapil Tuban. Namun selama ada celah untuk memperjuangkan nama anak sepanjang 19 kata itu, ia akan terus memperjuangkannya. "Kalau untuk mengganti nama kami siap kok. Asalkan saya minta satu lembar kertas surat dari Dinas Catatan Sipil Tuban bahwa nama tersebut dilarang, atau tidak boleh. Itu saja. (Jika) surat ditandatangani dan distempel pihak terkait dan sudah kami terima, insyaallah kami ganti namanya. Saya taat hukum," tutur Arif. Nama Cordo Diganti dan Dapat Akta Lahir Nama Cordo jadi lebih pendek yakni R - Akbar Zudan Cordosega Sura Talenta. Pergantian nama bocah tersebut terjadi setelah adanya komunikasi yang intens dari Dirjen Dukcapil Kemendagri, Zudan Arif Fakrulloh dengan Arif dan tokoh adat Desa Ngujuran, Mujoko Sahid. Mujoko yang juga merupakan paman dari Arif menceritakan alasan mengapa pihaknya mau mengganti nama Cordo. Menurutnya, pihaknya luluh dengan sikap humanis yang ditunjukkan Zudan. Yang santun, terbuka, informatif dan berorientasi pada solusi. "Itulah mengapa kami bersedia mengganti nama lengkap Cordosega karena terkena apa yang kami sebut istilahnya sebagai 'pasal sungkan'. Saya sungkan dengan Pak Prof Zudan yang memberikan nasihat dan saran yang bisa membuat kami legowo," ungkap Mujoko, Rabu (10/11/2021). "Melalui kejadian ini, kami menjadi percaya bahwa cara-cara seperti yang dilakukan Prof Zudan ini, bahwa dengan ketulusan silaturahmi, itu kunci solusi untuk segala problem di NKRI," imbuhnya. Zudan mendatangi rumah Arif untuk memberikan secara langsung dokumen kependudukan milik Cordo. Seperti Akta Kelahiran, KK dan Kartu Identitas Anak (KIA). "Meski demikian, nama Cordosega yang sebelumnya (19 kata), silahkan tetap menjadi nama adat baginya sehingga ketentuan adat tetap berlaku," terang Zudan, Rabu (10/11/2021). Ia juga menjelaskan, nama R - Akbar Zudan Cordosega Sura Talenta dapat diakomodir dalam Sistem Informasi Administrasi Kependudukan (SIAK). Sehingga proses pengurusan berbagai dokumen kependudukan dapat dilakukan. "Yang penting untuk kepentingan negara, nama lengkap terbaru dari ananda Cordosega kami resmikan di dokumen kependudukan, agar mendapatkan berbagai pelayanan publik dengan mudah ke depannya," imbuh Zudan.  Jatim Flashback adalah rubrik spesial detikJatim yang mengulas peristiwa-peristiwa di Jawa Timur serta menjadi perhatian besar pada masa lalu. Jatim Flashback diharapkan bisa memutar kembali memori pembaca setia detikJatim. Jatim Flashback tayang setiap hari Sabtu. Ingin mencari artikel-artikel lain di rubrik Jatim Flashback? Klik di sini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186817/kisah-cordo-tuban-nama-lahirnya-panjang-19-kata-hingga-sulit-bikin-akta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejayaan PDIP dan PKB di Jatim Terancam Dua Partai Ini Versi ARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 18:49 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominasi PKB dan PDIP di Jawa Timur terancam diusik oleh dua partai ini. Hal itu tergambar dalam survei Accurate Research and Consulting Indonesia (ARCI). Direktur ARCI Baihaki Sirajt menyebut Gerindra dan Golkar berpotensi menyalip PDIP bahkan PKB di Jawa Timur jika lengah di menit akhir. "Selisih antara 4 partai teratas di Jatim ini sangat tipis. Dan jika lengah di hari-hari akhir Pemilu, bisa jadi ada kejutan besar dua kekuatan partai tradisional di Jatim bisa dikalahkan oleh Gerindra atau bahkan Golkar," kata Baihaki saat paparan survei di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Dalam survei ARCI di Jatim, elektabilitas PKB di angka 17,7% dan berada di peringkat teratas. Menguntit di peringkat kedua ada PDI Perjuangan (PDIP) di angka 16,1%. Sementara Gerindra di posisi ketiga di angka 15,8%, dan Golkar 14,7% melengkapi 4 besar. Baihaki membeberkan tren PKB di Jatim cenderung naik namun angkanya sangat kecil. Sementara PDIP trennya justru terus menurun. "PKB stagnan agak naik sedikit. Berbanding terbalik dengan PDIP yang justru perlahan turun sedikit demi sedikit," ungkapnya. Baihaki juga membeberkan Gerindra meraih coattail effect dari majunya Prabowo Subianto. Sementara, kerja keras kader Golkar Jatim dan efek elektoral Gibran berpengaruh ke elektabilitas Partai Berlambang Beringin. "Gerindra mengalami kenaikan perlahan berkat coattail effect Prabowo. Sementara Golkar trennya cukup mengejutkan, dan temuan kami ada limpahan suara PDIP ke Golkar di Jawa Timur karena faktor Gibran Rakabuming Raka yang notabene putra Jokowi," jelas Baihaki. "Beberapa responden memilih Golkar, karena mereka menilai Gibran sudah menjadi kader Golkar. Kita ingat kala itu Gibran diusulkan Golkar jadi cawapres Prabowo. Jadi Golkar dapat limpahan elektoral Gibran dari pemilih Jokowi dulu yang ada di PDIP," tambahnya. Namun, Baihaki menyebut apapun masih bisa terjadi di Pileg 2024 ini mengingat 3 hari jelang coblosan sangat krusial. "Karena Pileg ini, 3 hari menjelang coblosan menjadi penentu, terutama untuk menjaga suara," tandasnya. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas partai politik di Jawa Timur versi ARCI: 1. PKB 17,7%2. PDIP 16,1%3. Gerindra 15,8%4. Golkar 14,7%5. Demokrat 8,2%6. NasDem 6,7%7. PKS 5,8%8. PAN 5,1%9. PPP 4,1%10. PSI 1,5%11. Perindo 1,2%12. PBB 1,2%13. Gelora 0,5%14. Hanura 0,1%15. PKN 0,1%16. Ummat 0%17. Garuda 0%18. Buruh 0%Tidak tahu/tidak menjawab 1,2%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186779/kejayaan-pdip-dan-pkb-di-jatim-terancam-dua-partai-ini-versi-arci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMNI Jatim Gelar Aksi Serukan Pemilu Damai Tanpa Provokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:22 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massa yang terdiri dari mahasiswa sejumlah kampus di Jatim menggelar aksi menyerukan pemilu damai. Mereka menyampaikan seruan damai di Taman Makam Pahlawan (TMP) Mayjend Sungkono Surabaya. Ketua DPD GMNI Jatim Hendra Prayogi mengatakan seruan damai kebangsaan bertajuk 'Pemilu Damai Tanpa Provokasi' itu merupakan bukti dan tekad untuk menjunjung tinggi nilai-nilai demokrasi. Begitu juga dengan kedamaian dan keadilan dalam pelaksanaan Pemilu 2024 pada 14 Februari 2024. "Aksi kami hari ini mencerminkan semangat persatuan, hingga menyoroti peran vital pemuda dan mahasiswa sebagai garda terdepan dalam mewujudkan pemilu yang damai, jujur, dan adil," kata Hendra saat ditemui di TMP Mayjend Sungkono Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Hendra meyakini masa depan negara Indonesia ada pada partisipasi para pemuda secara aktif. Begitu juga dari seluruh elemen masyarakat. Hendra mengajak masyarakat untuk bersama-sama menggunakan hak pilih pada Pemilu 2024. Karena mencoblos secara bermartabat akan memberikan harapan baru bagi tanah air. "Secara esensi, pemilu adalah momentum dan ujian bagi seluruh elemen bangsa, seberapa jauh nilai nilai demokrasi telah menjadi bagian dari jati diri bangsa Indonesia, sekaligus menjadi proses pembelajaran dalam rangka pendewasaan bangsa," ujarnya. Nilai demokrasi, sambung dia, yang dimaksud yakni merampungkan perselisihan secara damai dan sukarela. Lalu, menjamin terjadinya perubahan secara damai, pergantian penguasa dengan teratur, hingga adanya pengakuan terhadap nilai keberagaman, pengakuan, dan jaminan atas tegaknya keadilan. Berikut beberapa poin yang diserukan dalam aksi tersebut: 1. Pemilu damai tanpa provokasi, ini menjadi penting untuk diketahui oleh seluruh anak bangsa, seluruh elemen masyarakat agar tidak menjadikan pemilu sebagai sebab atau pun menjadikan pemilu pemecah bela bangsa. 2. Kami sadar bahwa bangsa kita ini didirikan tidak mudah, banyak pengorbanan pahlawan kita hari ini. Kami mendesak dan menyerukan generasi bangsa, mahasiswa dan elemen seluruh masyarakat untuk mengutamakan persatuan dan kesatuan. 3. Mendesak pada seluruh pejabat negara untuk berpedoman selalu berada di jalur jalur Pancasila dan UU dasar 1945.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186612/gmni-jatim-gelar-aksi-serukan-pemilu-damai-tanpa-provokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puncak Arus Balik Libur Panjang Imlek di Jatim Diprediksi Terjadi Besok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:05 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puncak arus balik masyarakat usai libur panjang Isra Miraj dan tahun baru Imlek diprediksi terjadi besok (11/2/2024). Diprediksi, kepadatan kendaraan akan terjadi, baik di jalan raya maupun di jalan tol. Kakorlantas Polri Irjen Aan Suhanan memastikan pihaknya telah melakukan sejumlah antisipasi. Baik di kawasan kabupaten atau kota, terutama di jalanan yang dinilai bakal menjadi penumpukan arus lalin saat arus balik nanti. "Kita siapkan untuk antisipasi dan lakukan survei dan rapat-rapat arus balik diperkirakan besok tanggal 11 Februari dari timur ke barat, maupun sebaliknya dan seterusnya, mungkin dari kabupaten ke kota, sudah kami antisipasi," kata Aan saat sesi doorstop di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ia memastikan, telah menyebar sejumlah personel lalu lintas di jalan raya. Terutama, di 3 titik rawan kemacetan atau kepadatan volume lalin. Aan juga menegaskan, sudah ada cara yang kerap dilakukan pihaknya saat libur panjang serupa. Diantaranya melakukan contra flow maupun oneway. "Kalau kita kluster ada 3 ruas jalan ya kalau bicara kemacetan, ada tol, arteri, wisata, dan pelabuhan penyeberangan, sudah diantisipasi semua, sudah kita siapkan rekayasa contra flow dan one way, termasuk yang ke pelabuhan, Insyaallah bisa kita kelola dengan baik," ujarnya. Selain itu, Aan mengimbau para pengendara yang akan melakukan arus balik tetap ekstra hati-hati dan waspada. Kurangi kecepatan kendaraan dan saling menjunjung toleransi di jalan. "Meredam emosi di jalan, harus toleransi sesama pengguna jalan yang lain," tuturnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186534/puncak-arus-balik-libur-panjang-imlek-di-jatim-diprediksi-terjadi-besok</t>
   </si>
 </sst>
 </file>
@@ -892,6 +1162,258 @@
         <v>75</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
